--- a/output/SIZE/rebalance/rebalance_20241231.xlsx
+++ b/output/SIZE/rebalance/rebalance_20241231.xlsx
@@ -31284,13 +31284,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.32191174350746</v>
+        <v>0.3219085982399902</v>
       </c>
       <c r="C2" t="n">
         <v>0.2999999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.02191174350746011</v>
+        <v>-0.02190859823999031</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -31305,13 +31305,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06921991875440919</v>
+        <v>0.06922062788507655</v>
       </c>
       <c r="C3" t="n">
         <v>0.07054435790700479</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0013244391525956</v>
+        <v>0.001323730021928246</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -31326,13 +31326,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05831389691942879</v>
+        <v>0.05831280008490292</v>
       </c>
       <c r="C4" t="n">
         <v>0.06255010160285701</v>
       </c>
       <c r="D4" t="n">
-        <v>0.004236204683428217</v>
+        <v>0.004237301517954088</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -31347,13 +31347,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03794198315909998</v>
+        <v>0.0379411449927552</v>
       </c>
       <c r="C5" t="n">
         <v>0.03804461220984833</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0001026290507483499</v>
+        <v>0.0001034672170931311</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -31368,13 +31368,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02951720302880811</v>
+        <v>0.0295172013757736</v>
       </c>
       <c r="C6" t="n">
         <v>0.03086148340959789</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001344280380789781</v>
+        <v>0.001344282033824296</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -31389,13 +31389,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.029149597434827</v>
+        <v>0.02914992536495842</v>
       </c>
       <c r="C7" t="n">
         <v>0.03059515539283678</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001445557958009779</v>
+        <v>0.001445230027878362</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -31410,13 +31410,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03036981560369158</v>
+        <v>0.03036940707756189</v>
       </c>
       <c r="C8" t="n">
         <v>0.03054161380190241</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0001717981982108305</v>
+        <v>0.0001722067243405262</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -31431,13 +31431,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02623759760692696</v>
+        <v>0.02623778350279394</v>
       </c>
       <c r="C9" t="n">
         <v>0.02644071431894544</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0002031167120184751</v>
+        <v>0.0002029308161514941</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -31452,13 +31452,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0216973042264462</v>
+        <v>0.02169713163548392</v>
       </c>
       <c r="C10" t="n">
         <v>0.02171221907421148</v>
       </c>
       <c r="D10" t="n">
-        <v>1.491484776528287e-05</v>
+        <v>1.508743872756166e-05</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -31473,13 +31473,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01881241724220804</v>
+        <v>0.01881240780303199</v>
       </c>
       <c r="C11" t="n">
         <v>0.01972648842074385</v>
       </c>
       <c r="D11" t="n">
-        <v>0.000914071178535817</v>
+        <v>0.0009140806177118585</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -31494,13 +31494,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01576342813431013</v>
+        <v>0.015763516022011</v>
       </c>
       <c r="C12" t="n">
         <v>0.01584306715250994</v>
       </c>
       <c r="D12" t="n">
-        <v>7.963901819981259e-05</v>
+        <v>7.955113049894907e-05</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -31515,13 +31515,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01452206759277777</v>
+        <v>0.01452237398586549</v>
       </c>
       <c r="C13" t="n">
         <v>0.01492375251641534</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0004016849236375773</v>
+        <v>0.0004013785305498514</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -31536,13 +31536,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01267459931367625</v>
+        <v>0.01267468911441423</v>
       </c>
       <c r="C14" t="n">
         <v>0.01344473506374919</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0007701357500729394</v>
+        <v>0.0007700459493349566</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -31557,13 +31557,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01224125319637036</v>
+        <v>0.01224142865491561</v>
       </c>
       <c r="C15" t="n">
         <v>0.01343507549837443</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001193822302004072</v>
+        <v>0.00119364684345882</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -31578,13 +31578,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01257802032262458</v>
+        <v>0.01257830493532516</v>
       </c>
       <c r="C16" t="n">
         <v>0.0126863211880398</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0001083008654152173</v>
+        <v>0.0001080162527146347</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -31599,13 +31599,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01226789902684685</v>
+        <v>0.01226788980973174</v>
       </c>
       <c r="C17" t="n">
         <v>0.01262808780820913</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0003601887813622813</v>
+        <v>0.0003601979984773906</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -31620,13 +31620,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01234629522987771</v>
+        <v>0.01234619443294076</v>
       </c>
       <c r="C18" t="n">
         <v>0.01214510953947135</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0002011856904063636</v>
+        <v>-0.0002010848934694137</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -31641,13 +31641,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0115233539317365</v>
+        <v>0.01152378257813337</v>
       </c>
       <c r="C19" t="n">
         <v>0.01197040939997934</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0004470554682428317</v>
+        <v>0.0004466268218459701</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -31662,13 +31662,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01181283704455089</v>
+        <v>0.01181289520299013</v>
       </c>
       <c r="C20" t="n">
         <v>0.01189754867829546</v>
       </c>
       <c r="D20" t="n">
-        <v>8.471163374457538e-05</v>
+        <v>8.465347530533726e-05</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -31683,13 +31683,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01146914280970301</v>
+        <v>0.01146922406966736</v>
       </c>
       <c r="C21" t="n">
         <v>0.01166295923347997</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0001938164237769574</v>
+        <v>0.0001937351638126115</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -31704,13 +31704,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01035925295741322</v>
+        <v>0.01035921598457066</v>
       </c>
       <c r="C22" t="n">
         <v>0.01049249589764173</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0001332429402285014</v>
+        <v>0.0001332799130710632</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -31725,13 +31725,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01015440629817958</v>
+        <v>0.01015450238536444</v>
       </c>
       <c r="C23" t="n">
         <v>0.01021016060111672</v>
       </c>
       <c r="D23" t="n">
-        <v>5.575430293714573e-05</v>
+        <v>5.565821575228246e-05</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -31746,13 +31746,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01001941084867737</v>
+        <v>0.01001941602205518</v>
       </c>
       <c r="C24" t="n">
         <v>0.009944660547102011</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.475030157535513e-05</v>
+        <v>-7.475547495316461e-05</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -31767,13 +31767,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.009465749242559409</v>
+        <v>0.009465593482491942</v>
       </c>
       <c r="C25" t="n">
         <v>0.009855792545654258</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0003900433030948492</v>
+        <v>0.0003901990631623165</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -31788,13 +31788,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.009305965375360839</v>
+        <v>0.009306031309007944</v>
       </c>
       <c r="C26" t="n">
         <v>0.009517155782373539</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0002111904070126996</v>
+        <v>0.000211124473365595</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -31809,13 +31809,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.009010645316589419</v>
+        <v>0.009011019846936818</v>
       </c>
       <c r="C27" t="n">
         <v>0.009083303303255942</v>
       </c>
       <c r="D27" t="n">
-        <v>7.265798666652307e-05</v>
+        <v>7.228345631912422e-05</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -31830,13 +31830,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.008833822973474761</v>
+        <v>0.008833908996861083</v>
       </c>
       <c r="C28" t="n">
         <v>0.008896459710149953</v>
       </c>
       <c r="D28" t="n">
-        <v>6.263673667519266e-05</v>
+        <v>6.255071328887044e-05</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -31851,13 +31851,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.008800838334464742</v>
+        <v>0.008800757086680872</v>
       </c>
       <c r="C29" t="n">
         <v>0.008729763210539886</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.107512392485679e-05</v>
+        <v>-7.099387614098625e-05</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -31872,13 +31872,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.008457083967302437</v>
+        <v>0.008457516980206081</v>
       </c>
       <c r="C30" t="n">
         <v>0.008633719531956602</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0001766355646541651</v>
+        <v>0.0001762025517505206</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -31893,13 +31893,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.00862689441348599</v>
+        <v>0.008627105913353934</v>
       </c>
       <c r="C31" t="n">
         <v>0.008553959120719332</v>
       </c>
       <c r="D31" t="n">
-        <v>-7.293529276665781e-05</v>
+        <v>-7.314679263460168e-05</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -31914,13 +31914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.008496120894346456</v>
+        <v>0.00849624407788928</v>
       </c>
       <c r="C32" t="n">
         <v>0.008430592671504596</v>
       </c>
       <c r="D32" t="n">
-        <v>-6.552822284186001e-05</v>
+        <v>-6.565140638468449e-05</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -31935,13 +31935,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.008044133731894804</v>
+        <v>0.008044232935254246</v>
       </c>
       <c r="C33" t="n">
         <v>0.008314125911843256</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0002699921799484521</v>
+        <v>0.0002698929765890101</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -31956,13 +31956,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.007799383668055254</v>
+        <v>0.007799518104578763</v>
       </c>
       <c r="C34" t="n">
         <v>0.008257548457505403</v>
       </c>
       <c r="D34" t="n">
-        <v>0.000458164789450149</v>
+        <v>0.0004580303529266401</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -31977,13 +31977,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.007583117378467431</v>
+        <v>0.00758320551516039</v>
       </c>
       <c r="C35" t="n">
         <v>0.008040346230364467</v>
       </c>
       <c r="D35" t="n">
-        <v>0.000457228851897036</v>
+        <v>0.0004571407152040774</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -31998,13 +31998,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.008158364137967361</v>
+        <v>0.008158381024063641</v>
       </c>
       <c r="C36" t="n">
         <v>0.008017715248629325</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.0001406488893380357</v>
+        <v>-0.0001406657754343156</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -32019,13 +32019,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.007349074211235118</v>
+        <v>0.007349159564303934</v>
       </c>
       <c r="C37" t="n">
         <v>0.007746143467807623</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0003970692565725053</v>
+        <v>0.0003969839035036886</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -32040,13 +32040,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.007544547693370668</v>
+        <v>0.007544601147206471</v>
       </c>
       <c r="C38" t="n">
         <v>0.007575031166883381</v>
       </c>
       <c r="D38" t="n">
-        <v>3.048347351271297e-05</v>
+        <v>3.043001967690997e-05</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -32061,13 +32061,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.007469779186016706</v>
+        <v>0.007469881909637992</v>
       </c>
       <c r="C39" t="n">
         <v>0.007545776483176978</v>
       </c>
       <c r="D39" t="n">
-        <v>7.599729716027247e-05</v>
+        <v>7.589457353898623e-05</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -32082,13 +32082,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.006833636745690419</v>
+        <v>0.006833747298410723</v>
       </c>
       <c r="C40" t="n">
         <v>0.007295731733761876</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0004620949880714568</v>
+        <v>0.0004619844353511522</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -32145,13 +32145,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.0068570037985028</v>
+        <v>0.006857076982281989</v>
       </c>
       <c r="C43" t="n">
         <v>0.006781290880660602</v>
       </c>
       <c r="D43" t="n">
-        <v>-7.571291784219756e-05</v>
+        <v>-7.578610162138621e-05</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -32166,13 +32166,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.00683063843097862</v>
+        <v>0.006830617875745076</v>
       </c>
       <c r="C44" t="n">
         <v>0.006759487861671867</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.115056930675264e-05</v>
+        <v>-7.113001407320872e-05</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -32187,13 +32187,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.006671611899954973</v>
+        <v>0.006671601464047169</v>
       </c>
       <c r="C45" t="n">
         <v>0.006752588172118471</v>
       </c>
       <c r="D45" t="n">
-        <v>8.097627216349743e-05</v>
+        <v>8.098670807130202e-05</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -32229,13 +32229,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.006247614003744112</v>
+        <v>0.006247733437892073</v>
       </c>
       <c r="C47" t="n">
         <v>0.006590583461404713</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0003429694576606006</v>
+        <v>0.0003428500235126393</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -32250,13 +32250,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.006506715237396243</v>
+        <v>0.006507051698012534</v>
       </c>
       <c r="C48" t="n">
         <v>0.006544493535188022</v>
       </c>
       <c r="D48" t="n">
-        <v>3.777829779177868e-05</v>
+        <v>3.744183717548782e-05</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -32271,13 +32271,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.006453281052188979</v>
+        <v>0.006453179659865646</v>
       </c>
       <c r="C49" t="n">
         <v>0.006445689980783377</v>
       </c>
       <c r="D49" t="n">
-        <v>-7.591071405601418e-06</v>
+        <v>-7.489679082268996e-06</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -32292,13 +32292,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.005661803028702824</v>
+        <v>0.005661942197780335</v>
       </c>
       <c r="C50" t="n">
         <v>0.006280649406666124</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0006188463779632997</v>
+        <v>0.0006187072088857885</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -32313,13 +32313,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.006213021473961296</v>
+        <v>0.006213284557631682</v>
       </c>
       <c r="C51" t="n">
         <v>0.00623676738110652</v>
       </c>
       <c r="D51" t="n">
-        <v>2.374590714522389e-05</v>
+        <v>2.348282347483781e-05</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -32334,13 +32334,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.005733989982064008</v>
+        <v>0.005734077070214259</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.005733989982064008</v>
+        <v>-0.005734077070214259</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -32355,13 +32355,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.005779396916938675</v>
+        <v>0.005779523557983412</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.005779396916938675</v>
+        <v>-0.005779523557983412</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -32376,13 +32376,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.0043623227152355</v>
+        <v>0.004362545146187989</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.0043623227152355</v>
+        <v>-0.004362545146187989</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>

--- a/output/SIZE/rebalance/rebalance_20241231.xlsx
+++ b/output/SIZE/rebalance/rebalance_20241231.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3.86%</t>
+          <t>3.79%</t>
         </is>
       </c>
     </row>
@@ -31284,13 +31284,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3219085982399902</v>
+        <v>0.3210871012252076</v>
       </c>
       <c r="C2" t="n">
         <v>0.2999999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.02190859823999031</v>
+        <v>-0.02108710122520768</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -31305,13 +31305,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06922062788507655</v>
+        <v>0.06930409905281783</v>
       </c>
       <c r="C3" t="n">
         <v>0.07054435790700479</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001323730021928246</v>
+        <v>0.001240258854186965</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -31326,13 +31326,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05831280008490292</v>
+        <v>0.05838481409662843</v>
       </c>
       <c r="C4" t="n">
         <v>0.06255010160285701</v>
       </c>
       <c r="D4" t="n">
-        <v>0.004237301517954088</v>
+        <v>0.004165287506228577</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -31347,13 +31347,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0379411449927552</v>
+        <v>0.03798812547654308</v>
       </c>
       <c r="C5" t="n">
         <v>0.03804461220984833</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0001034672170931311</v>
+        <v>5.648673330525128e-05</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -31368,13 +31368,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0295172013757736</v>
+        <v>0.0295530997331653</v>
       </c>
       <c r="C6" t="n">
         <v>0.03086148340959789</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001344282033824296</v>
+        <v>0.001308383676432594</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -31389,13 +31389,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02914992536495842</v>
+        <v>0.02918504708363782</v>
       </c>
       <c r="C7" t="n">
         <v>0.03059515539283678</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001445230027878362</v>
+        <v>0.001410108309198958</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -31410,13 +31410,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03036940707756189</v>
+        <v>0.03040674919428429</v>
       </c>
       <c r="C8" t="n">
         <v>0.03054161380190241</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0001722067243405262</v>
+        <v>0.0001348646076181209</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -31431,13 +31431,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02623778350279394</v>
+        <v>0.02626950589049363</v>
       </c>
       <c r="C9" t="n">
         <v>0.02644071431894544</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0002029308161514941</v>
+        <v>0.0001712084284518078</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -31452,17 +31452,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02169713163548392</v>
+        <v>0.02172369093098606</v>
       </c>
       <c r="C10" t="n">
         <v>0.02171221907421148</v>
       </c>
       <c r="D10" t="n">
-        <v>1.508743872756166e-05</v>
+        <v>-1.147185677457738e-05</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -31473,13 +31473,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01881240780303199</v>
+        <v>0.01883529555419879</v>
       </c>
       <c r="C11" t="n">
         <v>0.01972648842074385</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0009140806177118585</v>
+        <v>0.0008911928665450639</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -31494,13 +31494,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.015763516022011</v>
+        <v>0.0157825984845239</v>
       </c>
       <c r="C12" t="n">
         <v>0.01584306715250994</v>
       </c>
       <c r="D12" t="n">
-        <v>7.955113049894907e-05</v>
+        <v>6.046866798604597e-05</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -31515,13 +31515,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01452237398586549</v>
+        <v>0.01453972828937305</v>
       </c>
       <c r="C13" t="n">
         <v>0.01492375251641534</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0004013785305498514</v>
+        <v>0.0003840242270422949</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -31536,13 +31536,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01267468911441423</v>
+        <v>0.01269001325191303</v>
       </c>
       <c r="C14" t="n">
         <v>0.01344473506374919</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0007700459493349566</v>
+        <v>0.0007547218118361537</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -31557,13 +31557,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01224142865491561</v>
+        <v>0.01225614013015344</v>
       </c>
       <c r="C15" t="n">
         <v>0.01343507549837443</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00119364684345882</v>
+        <v>0.001178935368220994</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -31578,13 +31578,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01257830493532516</v>
+        <v>0.01259331680842234</v>
       </c>
       <c r="C16" t="n">
         <v>0.0126863211880398</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0001080162527146347</v>
+        <v>9.300437961745622e-05</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -31599,13 +31599,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01226788980973174</v>
+        <v>0.01228281836537702</v>
       </c>
       <c r="C17" t="n">
         <v>0.01262808780820913</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0003601979984773906</v>
+        <v>0.0003452694428321135</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -31620,13 +31620,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01234619443294076</v>
+        <v>0.01236130990824479</v>
       </c>
       <c r="C18" t="n">
         <v>0.01214510953947135</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0002010848934694137</v>
+        <v>-0.0002162003687734403</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -31641,13 +31641,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01152378257813337</v>
+        <v>0.01153736780794581</v>
       </c>
       <c r="C19" t="n">
         <v>0.01197040939997934</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0004466268218459701</v>
+        <v>0.0004330415920335284</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -31662,13 +31662,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01181289520299013</v>
+        <v>0.01182720296935053</v>
       </c>
       <c r="C20" t="n">
         <v>0.01189754867829546</v>
       </c>
       <c r="D20" t="n">
-        <v>8.465347530533726e-05</v>
+        <v>7.034570894493171e-05</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -31683,13 +31683,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01146922406966736</v>
+        <v>0.01148309075823554</v>
       </c>
       <c r="C21" t="n">
         <v>0.01166295923347997</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0001937351638126115</v>
+        <v>0.0001798684752444286</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -31704,13 +31704,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01035921598457066</v>
+        <v>0.01037185113754603</v>
       </c>
       <c r="C22" t="n">
         <v>0.01049249589764173</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0001332799130710632</v>
+        <v>0.0001206447600956961</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -31725,13 +31725,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01015450238536444</v>
+        <v>0.01016675535850391</v>
       </c>
       <c r="C23" t="n">
         <v>0.01021016060111672</v>
       </c>
       <c r="D23" t="n">
-        <v>5.565821575228246e-05</v>
+        <v>4.340524261280988e-05</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -31746,13 +31746,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01001941602205518</v>
+        <v>0.01003159573722243</v>
       </c>
       <c r="C24" t="n">
         <v>0.009944660547102011</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.475547495316461e-05</v>
+        <v>-8.69351901204244e-05</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -31767,13 +31767,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.009465593482491942</v>
+        <v>0.009477260807586345</v>
       </c>
       <c r="C25" t="n">
         <v>0.009855792545654258</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0003901990631623165</v>
+        <v>0.0003785317380679137</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -31788,13 +31788,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.009306031309007944</v>
+        <v>0.009317282622713556</v>
       </c>
       <c r="C26" t="n">
         <v>0.009517155782373539</v>
       </c>
       <c r="D26" t="n">
-        <v>0.000211124473365595</v>
+        <v>0.0001998731596599829</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -31809,13 +31809,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.009011019846936818</v>
+        <v>0.009021603416876946</v>
       </c>
       <c r="C27" t="n">
         <v>0.009083303303255942</v>
       </c>
       <c r="D27" t="n">
-        <v>7.228345631912422e-05</v>
+        <v>6.169988637899637e-05</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -31830,13 +31830,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.008833908996861083</v>
+        <v>0.008844566035116238</v>
       </c>
       <c r="C28" t="n">
         <v>0.008896459710149953</v>
       </c>
       <c r="D28" t="n">
-        <v>6.255071328887044e-05</v>
+        <v>5.189367503371546e-05</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -31851,13 +31851,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.008800757086680872</v>
+        <v>0.00881154128255502</v>
       </c>
       <c r="C29" t="n">
         <v>0.008729763210539886</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.099387614098625e-05</v>
+        <v>-8.177807201513454e-05</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -31872,13 +31872,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.008457516980206081</v>
+        <v>0.008467368865996992</v>
       </c>
       <c r="C30" t="n">
         <v>0.008633719531956602</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0001762025517505206</v>
+        <v>0.0001663506659596095</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -31893,13 +31893,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.008627105913353934</v>
+        <v>0.008637385823460684</v>
       </c>
       <c r="C31" t="n">
         <v>0.008553959120719332</v>
       </c>
       <c r="D31" t="n">
-        <v>-7.314679263460168e-05</v>
+        <v>-8.342670274135225e-05</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -31914,13 +31914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.00849624407788928</v>
+        <v>0.008506453266950646</v>
       </c>
       <c r="C32" t="n">
         <v>0.008430592671504596</v>
       </c>
       <c r="D32" t="n">
-        <v>-6.565140638468449e-05</v>
+        <v>-7.586059544605062e-05</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -31935,13 +31935,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.008044232935254246</v>
+        <v>0.008053916430143745</v>
       </c>
       <c r="C33" t="n">
         <v>0.008314125911843256</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0002698929765890101</v>
+        <v>0.000260209481699511</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -31956,13 +31956,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.007799518104578763</v>
+        <v>0.007808868718838257</v>
       </c>
       <c r="C34" t="n">
         <v>0.008257548457505403</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0004580303529266401</v>
+        <v>0.0004486797386671461</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -31977,13 +31977,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.00758320551516039</v>
+        <v>0.007592339421706927</v>
       </c>
       <c r="C35" t="n">
         <v>0.008040346230364467</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0004571407152040774</v>
+        <v>0.0004480068086575402</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -31998,13 +31998,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.008158381024063641</v>
+        <v>0.008168285755039716</v>
       </c>
       <c r="C36" t="n">
         <v>0.008017715248629325</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.0001406657754343156</v>
+        <v>-0.0001505705064103902</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -32019,13 +32019,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.007349159564303934</v>
+        <v>0.007358011627968067</v>
       </c>
       <c r="C37" t="n">
         <v>0.007746143467807623</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0003969839035036886</v>
+        <v>0.0003881318398395563</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -32040,13 +32040,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.007544601147206471</v>
+        <v>0.007553722830926662</v>
       </c>
       <c r="C38" t="n">
         <v>0.007575031166883381</v>
       </c>
       <c r="D38" t="n">
-        <v>3.043001967690997e-05</v>
+        <v>2.130833595671844e-05</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -32061,13 +32061,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.007469881909637992</v>
+        <v>0.00747886339547897</v>
       </c>
       <c r="C39" t="n">
         <v>0.007545776483176978</v>
       </c>
       <c r="D39" t="n">
-        <v>7.589457353898623e-05</v>
+        <v>6.691308769800862e-05</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -32082,13 +32082,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.006833747298410723</v>
+        <v>0.006841947324362287</v>
       </c>
       <c r="C40" t="n">
         <v>0.007295731733761876</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0004619844353511522</v>
+        <v>0.0004537844093995885</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -32145,13 +32145,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.006857076982281989</v>
+        <v>0.006865342794507628</v>
       </c>
       <c r="C43" t="n">
         <v>0.006781290880660602</v>
       </c>
       <c r="D43" t="n">
-        <v>-7.578610162138621e-05</v>
+        <v>-8.405191384702575e-05</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -32166,13 +32166,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.006830617875745076</v>
+        <v>0.006838945363315274</v>
       </c>
       <c r="C44" t="n">
         <v>0.006759487861671867</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.113001407320872e-05</v>
+        <v>-7.945750164340716e-05</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -32187,13 +32187,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.006671601464047169</v>
+        <v>0.006679725435635328</v>
       </c>
       <c r="C45" t="n">
         <v>0.006752588172118471</v>
       </c>
       <c r="D45" t="n">
-        <v>8.098670807130202e-05</v>
+        <v>7.286273648314263e-05</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -32229,13 +32229,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.006247733437892073</v>
+        <v>0.006255211903606482</v>
       </c>
       <c r="C47" t="n">
         <v>0.006590583461404713</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0003428500235126393</v>
+        <v>0.0003353715577982305</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -32250,13 +32250,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.006507051698012534</v>
+        <v>0.006514628237587528</v>
       </c>
       <c r="C48" t="n">
         <v>0.006544493535188022</v>
       </c>
       <c r="D48" t="n">
-        <v>3.744183717548782e-05</v>
+        <v>2.986529760049417e-05</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -32271,13 +32271,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.006453179659865646</v>
+        <v>0.006461129069558313</v>
       </c>
       <c r="C49" t="n">
         <v>0.006445689980783377</v>
       </c>
       <c r="D49" t="n">
-        <v>-7.489679082268996e-06</v>
+        <v>-1.543908877493522e-05</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -32292,13 +32292,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.005661942197780335</v>
+        <v>0.005668688507291414</v>
       </c>
       <c r="C50" t="n">
         <v>0.006280649406666124</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0006187072088857885</v>
+        <v>0.0006119608993747101</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -32313,13 +32313,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.006213284557631682</v>
+        <v>0.006220577304871086</v>
       </c>
       <c r="C51" t="n">
         <v>0.00623676738110652</v>
       </c>
       <c r="D51" t="n">
-        <v>2.348282347483781e-05</v>
+        <v>1.619007623543476e-05</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -32334,13 +32334,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.005734077070214259</v>
+        <v>0.005740963249245598</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.005734077070214259</v>
+        <v>-0.005740963249245598</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -32355,13 +32355,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.005779523557983412</v>
+        <v>0.005786425404776353</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.005779523557983412</v>
+        <v>-0.005786425404776353</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -32376,13 +32376,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.004362545146187989</v>
+        <v>0.004367627859109281</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.004362545146187989</v>
+        <v>-0.004367627859109281</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
